--- a/ouv_dist.xlsx
+++ b/ouv_dist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hernany Castro\OneDrive\Área de Trabalho\ajuste_dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hernany Castro\OneDrive\Área de Trabalho\CREAS\creas_r\gith_transito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E2C3B0-3749-48EF-A302-13F16D65514A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBD7AA0-40A0-42B5-8AA1-AB9398F0BAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{91752893-2DA8-4311-9F66-D4DA9E43B985}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>ra</t>
   </si>
@@ -185,9 +185,6 @@
     <t>CRUZEIRO</t>
   </si>
   <si>
-    <t>ESTRUTURAL</t>
-  </si>
-  <si>
     <t>GAMA</t>
   </si>
   <si>
@@ -272,9 +269,6 @@
     <t>norte</t>
   </si>
   <si>
-    <t>NI</t>
-  </si>
-  <si>
     <t>BRAZLANDIA</t>
   </si>
   <si>
@@ -297,6 +291,9 @@
   </si>
   <si>
     <t>VARJAO</t>
+  </si>
+  <si>
+    <t>ano</t>
   </si>
 </sst>
 </file>
@@ -737,93 +734,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8363E32A-098F-4EC6-B122-89080522BC4A}">
-  <dimension ref="A2:N36"/>
+  <dimension ref="A2:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
+      <c r="C3" s="5">
+        <v>2023</v>
       </c>
       <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>8</v>
       </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
       <c r="G3" s="1">
         <v>2</v>
       </c>
@@ -831,33 +831,36 @@
         <v>2</v>
       </c>
       <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
         <v>4</v>
       </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
       <c r="K3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1">
         <v>5</v>
       </c>
-      <c r="M3" s="1">
-        <v>2</v>
-      </c>
       <c r="N3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
+      <c r="C4" s="5">
+        <v>2023</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -878,250 +881,268 @@
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
       <c r="L4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1">
         <v>2</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2023</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5">
+        <v>2023</v>
+      </c>
+      <c r="D6" s="1">
         <v>20</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>9</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>13</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>7</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>20</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>11</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>9</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>8</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>23</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>5</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>6</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2023</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2023</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>7</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>7</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>4</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>7</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2</v>
-      </c>
-      <c r="L8" s="1">
-        <v>2</v>
-      </c>
-      <c r="M8" s="1">
-        <v>7</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
+      <c r="C9" s="5">
+        <v>2023</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
         <v>2</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
         <v>1</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
+      <c r="C10" s="5">
+        <v>2023</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1142,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
@@ -1156,148 +1177,160 @@
       <c r="N10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2023</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>7</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2023</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2023</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1">
-        <v>3</v>
-      </c>
-      <c r="J12" s="1">
-        <v>7</v>
-      </c>
-      <c r="K12" s="1">
-        <v>4</v>
-      </c>
-      <c r="L12" s="1">
-        <v>3</v>
-      </c>
-      <c r="M12" s="1">
-        <v>2</v>
-      </c>
-      <c r="N12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
+      <c r="C14" s="5">
+        <v>2023</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1306,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -1324,24 +1357,27 @@
         <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="1">
-        <v>0</v>
+      <c r="C15" s="5">
+        <v>2023</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1359,13 +1395,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L15" s="1">
         <v>0</v>
@@ -1376,22 +1412,25 @@
       <c r="N15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="1">
-        <v>0</v>
+      <c r="C16" s="5">
+        <v>2023</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1406,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -1420,16 +1459,19 @@
       <c r="N16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
+      <c r="C17" s="5">
+        <v>2023</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -1441,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -1453,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1">
         <v>0</v>
@@ -1464,16 +1506,19 @@
       <c r="N17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2023</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -1485,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -1494,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -1508,34 +1553,37 @@
       <c r="N18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2023</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1">
         <v>2</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -1552,31 +1600,34 @@
       <c r="N19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="1">
-        <v>0</v>
+      <c r="C20" s="5">
+        <v>2023</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -1596,16 +1647,19 @@
       <c r="N20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="1">
-        <v>0</v>
+      <c r="C21" s="5">
+        <v>2023</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -1640,28 +1694,31 @@
       <c r="N21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1">
-        <v>0</v>
+      <c r="C22" s="5">
+        <v>2023</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -1684,31 +1741,34 @@
       <c r="N22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="1">
-        <v>1</v>
+      <c r="C23" s="5">
+        <v>2023</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -1726,18 +1786,21 @@
         <v>0</v>
       </c>
       <c r="N23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="1">
-        <v>0</v>
+      <c r="C24" s="5">
+        <v>2023</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -1746,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -1758,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -1767,115 +1830,124 @@
         <v>0</v>
       </c>
       <c r="M24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="1">
-        <v>0</v>
+      <c r="C25" s="5">
+        <v>2023</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
       </c>
       <c r="N25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="1">
-        <v>0</v>
+      <c r="C26" s="5">
+        <v>2023</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
       </c>
       <c r="J26" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1">
         <v>0</v>
       </c>
       <c r="M26" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="1">
-        <v>0</v>
+      <c r="C27" s="5">
+        <v>2023</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -1887,39 +1959,42 @@
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
       </c>
       <c r="L27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
       </c>
       <c r="N27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="1">
-        <v>0</v>
+      <c r="C28" s="5">
+        <v>2023</v>
       </c>
       <c r="D28" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -1931,36 +2006,39 @@
         <v>1</v>
       </c>
       <c r="I28" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M28" s="1">
         <v>1</v>
       </c>
       <c r="N28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="1">
-        <v>0</v>
+      <c r="C29" s="5">
+        <v>2023</v>
       </c>
       <c r="D29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -1969,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -1981,27 +2059,30 @@
         <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1">
         <v>1</v>
       </c>
       <c r="M29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="1">
-        <v>0</v>
+      <c r="C30" s="5">
+        <v>2023</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -2010,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -2022,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1">
         <v>0</v>
@@ -2036,242 +2117,214 @@
       <c r="N30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="1">
-        <v>0</v>
+      <c r="C31" s="5">
+        <v>2023</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H31" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I31" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="O31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="1">
-        <v>2</v>
+      <c r="C32" s="5">
+        <v>2023</v>
       </c>
       <c r="D32" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I32" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2023</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
-        <v>5</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
-      <c r="L33" s="1">
-        <v>2</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="C34" s="5">
+        <v>2023</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="1">
-        <v>1</v>
+        <v>2023</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F35" s="1">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="G35" s="1">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="H35" s="1">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I35" s="1">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="L35" s="1">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="M35" s="1">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="N35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="1">
-        <v>69</v>
-      </c>
-      <c r="D36" s="1">
-        <v>57</v>
-      </c>
-      <c r="E36" s="1">
-        <v>62</v>
-      </c>
-      <c r="F36" s="1">
-        <v>48</v>
-      </c>
-      <c r="G36" s="1">
-        <v>105</v>
-      </c>
-      <c r="H36" s="1">
-        <v>79</v>
-      </c>
-      <c r="I36" s="1">
-        <v>75</v>
-      </c>
-      <c r="J36" s="1">
-        <v>63</v>
-      </c>
-      <c r="K36" s="1">
-        <v>87</v>
-      </c>
-      <c r="L36" s="1">
-        <v>73</v>
-      </c>
-      <c r="M36" s="1">
         <v>119</v>
       </c>
-      <c r="N36" s="1">
+      <c r="O35" s="1">
         <v>62</v>
       </c>
     </row>
